--- a/DMS_goa/DMS_fastapi_service/goa_latlong_points.xlsx
+++ b/DMS_goa/DMS_fastapi_service/goa_latlong_points.xlsx
@@ -392,13 +392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -410,42 +413,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15.7269755</v>
+        <v>15.5367269826368</v>
       </c>
       <c r="B2">
-        <v>73.675601200000003</v>
+        <v>73.945859024844395</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15.726926499999999</v>
+        <v>15.1261581188592</v>
       </c>
       <c r="B3">
-        <v>73.675676300000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15.726934200000001</v>
-      </c>
-      <c r="B4">
-        <v>73.675746000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15.726873899999999</v>
-      </c>
-      <c r="B5">
-        <v>73.675853900000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15.7267277</v>
-      </c>
-      <c r="B6">
-        <v>73.676054500000006</v>
+        <v>74.184811658032302</v>
       </c>
     </row>
   </sheetData>

--- a/DMS_goa/DMS_fastapi_service/goa_latlong_points.xlsx
+++ b/DMS_goa/DMS_fastapi_service/goa_latlong_points.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DMS_version1\Spero-DMS\DMS_goa\DMS_fastapi_service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DMS_branch wise\DMS-GOA\DMS_goa\DMS_fastapi_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,11 +83,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,23 +415,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>15.5367269826368</v>
-      </c>
-      <c r="B2">
-        <v>73.945859024844395</v>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>18.523805652465299</v>
+      </c>
+      <c r="B2" s="2">
+        <v>73.852603179306499</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15.1261581188592</v>
+        <v>18.502351858047401</v>
       </c>
       <c r="B3">
-        <v>74.184811658032302</v>
+        <v>73.832552041386094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18.519214182894199</v>
+      </c>
+      <c r="B4">
+        <v>73.850182268098095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18.564634812097601</v>
+      </c>
+      <c r="B5">
+        <v>73.891949449641203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18.529661061413702</v>
+      </c>
+      <c r="B6">
+        <v>73.849672652596396</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>